--- a/datos/depositos.xlsx
+++ b/datos/depositos.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\vladimir\finanzas\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Mercado-de-Valores\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE58A7B1-E909-4D83-8CDE-03DDF8015AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80068BC3-830C-4FD8-B0F3-AA31E402C6EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ED4DFA87-8014-4EA1-8181-ABD5C82B1EDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ED4DFA87-8014-4EA1-8181-ABD5C82B1EDE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="depositos" sheetId="1" r:id="rId1"/>
+    <sheet name="movimientos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,12 +26,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
   <si>
     <t>fecha</t>
   </si>
   <si>
     <t>importe usd</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>deposito</t>
+  </si>
+  <si>
+    <t>extraccion</t>
   </si>
 </sst>
 </file>
@@ -409,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A4A79D-28BE-4B57-BCB6-FFA4D17EA949}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,4 +760,473 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE7DE3E-2773-4ED4-AA32-5604CC3423AA}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>5446.4285714285716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>5220.869565217391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4237.2881355932204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4878.0487804878048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4838.7096774193551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4918.0327868852455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>9311.7408906882592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3187.2509960159364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2788.8446215139443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1606.4257028112449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>4081.6326530612246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3292.1810699588477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>5529.9539170506914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>4672.8971962616824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4926.1083743842364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>5940.5940594059402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5882.3529411764703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>4901.9607843137255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2970.2970297029701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45390</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>6091.3705583756346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45398</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>4830.9178743961356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>5797.101449275362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3759.3984962406016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45468</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>3690.0369003690039</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45489</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>4285.7142857142853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45490</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>4123.7113402061859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45491</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>4123.7113402061859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45492</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>4152.249134948097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45518</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>4428.0442804428048</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45520</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>4460.966542750929</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45523</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>4444.4444444444443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45575</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>-8530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>-3418.8034188034189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45593</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>4897.9591836734689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45610</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>5263.1578947368425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>5263.1578947368425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45652</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>-6841.9076923076927</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45652</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>-31657.444444444445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45656</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>-4052.5819256756758</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45656</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>-5333.614864864865</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/datos/depositos.xlsx
+++ b/datos/depositos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Mercado-de-Valores\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80068BC3-830C-4FD8-B0F3-AA31E402C6EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0CD3FD-EF85-49FC-82C1-5ABBDF493B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ED4DFA87-8014-4EA1-8181-ABD5C82B1EDE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="6">
   <si>
     <t>fecha</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>extraccion</t>
+  </si>
+  <si>
+    <t>saldo</t>
   </si>
 </sst>
 </file>
@@ -96,18 +99,7 @@
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -764,10 +756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE7DE3E-2773-4ED4-AA32-5604CC3423AA}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,6 +1218,17 @@
         <v>-5333.614864864865</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>191179.05405405405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datos/depositos.xlsx
+++ b/datos/depositos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Mercado-de-Valores\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0CD3FD-EF85-49FC-82C1-5ABBDF493B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C2712-F4C2-4E6F-9E37-720106E38C0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ED4DFA87-8014-4EA1-8181-ABD5C82B1EDE}"/>
   </bookViews>
@@ -90,10 +90,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -759,12 +760,13 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,7 +776,7 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -785,7 +787,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>5446.4285714285716</v>
       </c>
     </row>
@@ -796,7 +798,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>5220.869565217391</v>
       </c>
     </row>
@@ -807,7 +809,7 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>4237.2881355932204</v>
       </c>
     </row>
@@ -818,7 +820,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>4878.0487804878048</v>
       </c>
     </row>
@@ -829,7 +831,7 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>4838.7096774193551</v>
       </c>
     </row>
@@ -840,7 +842,7 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>4918.0327868852455</v>
       </c>
     </row>
@@ -851,7 +853,7 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>9311.7408906882592</v>
       </c>
     </row>
@@ -862,7 +864,7 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>3187.2509960159364</v>
       </c>
     </row>
@@ -873,7 +875,7 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>2788.8446215139443</v>
       </c>
     </row>
@@ -884,7 +886,7 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>1606.4257028112449</v>
       </c>
     </row>
@@ -895,7 +897,7 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>4081.6326530612246</v>
       </c>
     </row>
@@ -906,7 +908,7 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>3292.1810699588477</v>
       </c>
     </row>
@@ -917,7 +919,7 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>5529.9539170506914</v>
       </c>
     </row>
@@ -928,7 +930,7 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>4672.8971962616824</v>
       </c>
     </row>
@@ -939,7 +941,7 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>4926.1083743842364</v>
       </c>
     </row>
@@ -950,7 +952,7 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>5940.5940594059402</v>
       </c>
     </row>
@@ -961,7 +963,7 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>5882.3529411764703</v>
       </c>
     </row>
@@ -972,7 +974,7 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>4901.9607843137255</v>
       </c>
     </row>
@@ -983,7 +985,7 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>2970.2970297029701</v>
       </c>
     </row>
@@ -994,7 +996,7 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>6091.3705583756346</v>
       </c>
     </row>
@@ -1005,7 +1007,7 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>4830.9178743961356</v>
       </c>
     </row>
@@ -1016,7 +1018,7 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>5797.101449275362</v>
       </c>
     </row>
@@ -1027,7 +1029,7 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>3759.3984962406016</v>
       </c>
     </row>
@@ -1038,7 +1040,7 @@
       <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>3690.0369003690039</v>
       </c>
     </row>
@@ -1049,7 +1051,7 @@
       <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>4285.7142857142853</v>
       </c>
     </row>
@@ -1060,7 +1062,7 @@
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>4123.7113402061859</v>
       </c>
     </row>
@@ -1071,7 +1073,7 @@
       <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>4123.7113402061859</v>
       </c>
     </row>
@@ -1082,7 +1084,7 @@
       <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>4152.249134948097</v>
       </c>
     </row>
@@ -1093,7 +1095,7 @@
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>4428.0442804428048</v>
       </c>
     </row>
@@ -1104,7 +1106,7 @@
       <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>4460.966542750929</v>
       </c>
     </row>
@@ -1115,7 +1117,7 @@
       <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>4444.4444444444443</v>
       </c>
     </row>
@@ -1126,7 +1128,7 @@
       <c r="B33" t="s">
         <v>4</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>-8530</v>
       </c>
     </row>
@@ -1137,7 +1139,7 @@
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>-3418.8034188034189</v>
       </c>
     </row>
@@ -1148,7 +1150,7 @@
       <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>4897.9591836734689</v>
       </c>
     </row>
@@ -1159,7 +1161,7 @@
       <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>5263.1578947368425</v>
       </c>
     </row>
@@ -1170,7 +1172,7 @@
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>5263.1578947368425</v>
       </c>
     </row>
@@ -1181,7 +1183,7 @@
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>-6841.9076923076927</v>
       </c>
     </row>
@@ -1192,7 +1194,7 @@
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>-31657.444444444445</v>
       </c>
     </row>
@@ -1203,7 +1205,7 @@
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>-4052.5819256756758</v>
       </c>
     </row>
@@ -1214,7 +1216,7 @@
       <c r="B41" t="s">
         <v>4</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>-5333.614864864865</v>
       </c>
     </row>
@@ -1225,7 +1227,7 @@
       <c r="B42" t="s">
         <v>5</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>191179.05405405405</v>
       </c>
     </row>

--- a/datos/depositos.xlsx
+++ b/datos/depositos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Mercado-de-Valores\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E20D7CB-6577-46E1-8D10-7D2C0151C675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2E7F7C-F641-4421-A0E4-85E74FF3FBF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ED4DFA87-8014-4EA1-8181-ABD5C82B1EDE}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -96,34 +96,13 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -783,7 +762,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,10 +1234,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="4">
-        <f>+XIRR(C2:C42,A2:A42)</f>
-        <v>0.93183971643447872</v>
-      </c>
+      <c r="C43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
